--- a/GRE/词汇/老G阅读高频词.xlsx
+++ b/GRE/词汇/老G阅读高频词.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3583" uniqueCount="3537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3796" uniqueCount="3750">
   <si>
     <t>alternative</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -13969,13 +13969,652 @@
   </si>
   <si>
     <t>ambivalence</t>
+  </si>
+  <si>
+    <t>fiction 小说</t>
+  </si>
+  <si>
+    <t>friction 摩擦，冲突</t>
+  </si>
+  <si>
+    <t>devise 设计</t>
+  </si>
+  <si>
+    <t>revise 修改</t>
+  </si>
+  <si>
+    <t>saturnine 忧郁，阴沉的</t>
+  </si>
+  <si>
+    <t>saturate 浸透，饱和</t>
+  </si>
+  <si>
+    <t>introvert 内向的人</t>
+  </si>
+  <si>
+    <t>subvert 颠覆，推翻</t>
+  </si>
+  <si>
+    <t>imminent 迫在眉睫的</t>
+  </si>
+  <si>
+    <t>eminent 杰出的</t>
+  </si>
+  <si>
+    <t>illuminate 照亮，启迪</t>
+  </si>
+  <si>
+    <t>illusion 幻觉</t>
+  </si>
+  <si>
+    <t>endemic 地方的(病)</t>
+  </si>
+  <si>
+    <t>pandemic 大范围流行的(病)</t>
+  </si>
+  <si>
+    <t>epidemic 传染的</t>
+  </si>
+  <si>
+    <t>passion 热情</t>
+  </si>
+  <si>
+    <t>passive 被动，冷漠</t>
+  </si>
+  <si>
+    <t>modulate 调节</t>
+  </si>
+  <si>
+    <t>moderate 中等，温和的</t>
+  </si>
+  <si>
+    <t>invaluable = priceless 无价之宝</t>
+  </si>
+  <si>
+    <t>insurrection 反抗，起义</t>
+  </si>
+  <si>
+    <t>resurrection 复活</t>
+  </si>
+  <si>
+    <t>mirage 海市蜃楼</t>
+  </si>
+  <si>
+    <t>miracle 奇迹</t>
+  </si>
+  <si>
+    <t>spiral 螺旋的</t>
+  </si>
+  <si>
+    <t>spatial 空间的</t>
+  </si>
+  <si>
+    <t>empire 帝国</t>
+  </si>
+  <si>
+    <t>empirical 经验的</t>
+  </si>
+  <si>
+    <t>preserve 保护</t>
+  </si>
+  <si>
+    <t>conserve 保护</t>
+  </si>
+  <si>
+    <t>condemn 谴责</t>
+  </si>
+  <si>
+    <t>condone 宽恕原谅</t>
+  </si>
+  <si>
+    <t>condescend 屈尊</t>
+  </si>
+  <si>
+    <t>achieve 取得</t>
+  </si>
+  <si>
+    <t>archive 档案</t>
+  </si>
+  <si>
+    <t>detain 留住，拘留</t>
+  </si>
+  <si>
+    <t>distain 弄脏，伤害名誉</t>
+  </si>
+  <si>
+    <t>obtain 获得，通用</t>
+  </si>
+  <si>
+    <t>contemplate 沉思，注视</t>
+  </si>
+  <si>
+    <t>contempt 鄙视</t>
+  </si>
+  <si>
+    <t>contemporary 同时代</t>
+  </si>
+  <si>
+    <t>template 模版</t>
+  </si>
+  <si>
+    <t>tempt 诱惑</t>
+  </si>
+  <si>
+    <t>temper 脾气</t>
+  </si>
+  <si>
+    <t>temperate 有节制的，气候温和的</t>
+  </si>
+  <si>
+    <t>temperature 温度</t>
+  </si>
+  <si>
+    <t>integral 完整的</t>
+  </si>
+  <si>
+    <t>integrate 整合</t>
+  </si>
+  <si>
+    <t>integrity 正直，诚实</t>
+  </si>
+  <si>
+    <t>ostentatious 华美的，铺张浪费的</t>
+  </si>
+  <si>
+    <t>ostentate (v)夸张，炫耀</t>
+  </si>
+  <si>
+    <t>ostensible 表面的，假装的</t>
+  </si>
+  <si>
+    <t>tributary 支流，进贡国</t>
+  </si>
+  <si>
+    <t>tribulate 经受苦难</t>
+  </si>
+  <si>
+    <t>tribal 部落</t>
+  </si>
+  <si>
+    <t>neutron 中子</t>
+  </si>
+  <si>
+    <t>neuron 神经元</t>
+  </si>
+  <si>
+    <t>opponent 对手</t>
+  </si>
+  <si>
+    <t>proponent 支持者</t>
+  </si>
+  <si>
+    <t>casual 偶然的，便装</t>
+  </si>
+  <si>
+    <t>causal 因果关系</t>
+  </si>
+  <si>
+    <t>despair 绝望</t>
+  </si>
+  <si>
+    <t>desperate 绝望的，极度渴望的</t>
+  </si>
+  <si>
+    <t>radiate 辐射</t>
+  </si>
+  <si>
+    <t>radicate 使生根，确立</t>
+  </si>
+  <si>
+    <t>rigorous 严谨的</t>
+  </si>
+  <si>
+    <t>rigid 严格的，僵硬的</t>
+  </si>
+  <si>
+    <t>ridge 山脊</t>
+  </si>
+  <si>
+    <t>cardiac 心脏的</t>
+  </si>
+  <si>
+    <t>cardinal 基数，红衣主教</t>
+  </si>
+  <si>
+    <t>avenge revenge 复仇</t>
+  </si>
+  <si>
+    <t>sceptic  skeptic 怀疑的</t>
+  </si>
+  <si>
+    <t>imperious 飞扬跋扈</t>
+  </si>
+  <si>
+    <t>perishable 易腐烂的</t>
+  </si>
+  <si>
+    <t>deride 嘲笑，愚弄</t>
+  </si>
+  <si>
+    <t>exquisite 过分讲究的</t>
+  </si>
+  <si>
+    <t>requisite 必需品</t>
+  </si>
+  <si>
+    <t>prerequisite 前提</t>
+  </si>
+  <si>
+    <t>perquisite 特权，外快</t>
+  </si>
+  <si>
+    <t>entangle   使纠缠，缠住</t>
+  </si>
+  <si>
+    <t>tangle 纠缠</t>
+  </si>
+  <si>
+    <t>intangible 无形的</t>
+  </si>
+  <si>
+    <t>collude 共谋</t>
+  </si>
+  <si>
+    <t>allude 暗指</t>
+  </si>
+  <si>
+    <t>elude 迷惑，使抓不到</t>
+  </si>
+  <si>
+    <t>anticipate 预测</t>
+  </si>
+  <si>
+    <t>participate  参加</t>
+  </si>
+  <si>
+    <t>conspire 搞阴谋</t>
+  </si>
+  <si>
+    <t>   inspire 激发</t>
+  </si>
+  <si>
+    <t>    aspire 渴望</t>
+  </si>
+  <si>
+    <t>perspire 出汗</t>
+  </si>
+  <si>
+    <t>  respire 呼吸</t>
+  </si>
+  <si>
+    <t>assemble 组装</t>
+  </si>
+  <si>
+    <t>resemble 相似</t>
+  </si>
+  <si>
+    <t>ethic 道德</t>
+  </si>
+  <si>
+    <t>ethnic 种族，少数民族</t>
+  </si>
+  <si>
+    <t>inhabit 居住于</t>
+  </si>
+  <si>
+    <t>inhibit 阻止</t>
+  </si>
+  <si>
+    <t>comprehensive 有理解力的;综合的</t>
+  </si>
+  <si>
+    <t>    apprehensive 有理解力的;忧虑的</t>
+  </si>
+  <si>
+    <t>     reprehensive 责难的</t>
+  </si>
+  <si>
+    <t>elicit 诱出</t>
+  </si>
+  <si>
+    <t>illicit 非法的</t>
+  </si>
+  <si>
+    <t>institute 建立，学院</t>
+  </si>
+  <si>
+    <t>substitute 代替</t>
+  </si>
+  <si>
+    <t>constitute 组成</t>
+  </si>
+  <si>
+    <t>restitute 复原，归还</t>
+  </si>
+  <si>
+    <t>instant 立刻的</t>
+  </si>
+  <si>
+    <t>instance 实例</t>
+  </si>
+  <si>
+    <t>substance 物质，实体</t>
+  </si>
+  <si>
+    <t>substantive 根本的，大量的，本质的</t>
+  </si>
+  <si>
+    <t>substantial 大量的，牢固的</t>
+  </si>
+  <si>
+    <t>adhesive 有粘性的</t>
+  </si>
+  <si>
+    <t>cohesive 粘合的</t>
+  </si>
+  <si>
+    <t>invoke 引用;激发</t>
+  </si>
+  <si>
+    <t>revoke 废除</t>
+  </si>
+  <si>
+    <t>provoke 激怒</t>
+  </si>
+  <si>
+    <t>   tuition 学费</t>
+  </si>
+  <si>
+    <t>intuition 直觉</t>
+  </si>
+  <si>
+    <t>denouce 公开指责，申明废弃</t>
+  </si>
+  <si>
+    <t>renouce 声明放弃，否认</t>
+  </si>
+  <si>
+    <t>announce 宣布</t>
+  </si>
+  <si>
+    <t>collaborate 协作</t>
+  </si>
+  <si>
+    <t>corroborate 支持，强化</t>
+  </si>
+  <si>
+    <t>hallow 视为神圣的</t>
+  </si>
+  <si>
+    <t>hollow 空洞的</t>
+  </si>
+  <si>
+    <t>fallow 休耕地</t>
+  </si>
+  <si>
+    <t>    apathetic 无感情的</t>
+  </si>
+  <si>
+    <t>antipathetic 反感的</t>
+  </si>
+  <si>
+    <t>empathetic 移入感情的</t>
+  </si>
+  <si>
+    <t>sympathetic有同情心的</t>
+  </si>
+  <si>
+    <t>complete 完成</t>
+  </si>
+  <si>
+    <t>replete 充满的</t>
+  </si>
+  <si>
+    <t>deplete 耗尽</t>
+  </si>
+  <si>
+    <t>proscribe 宣布…被禁止</t>
+  </si>
+  <si>
+    <t>prescribe 开处方，规定</t>
+  </si>
+  <si>
+    <t>circumscribe 划界限，限制</t>
+  </si>
+  <si>
+    <t>ascribe 归咎于</t>
+  </si>
+  <si>
+    <t>sedulous  assiduous 勤勉的</t>
+  </si>
+  <si>
+    <t>extract 提取</t>
+  </si>
+  <si>
+    <t>protract 延长</t>
+  </si>
+  <si>
+    <t>retract 撤回</t>
+  </si>
+  <si>
+    <t>deter 威慑，阻止</t>
+  </si>
+  <si>
+    <t>defer 延迟</t>
+  </si>
+  <si>
+    <t>deference 依从</t>
+  </si>
+  <si>
+    <t>derive 继承于，源于</t>
+  </si>
+  <si>
+    <t>deprive 剥夺</t>
+  </si>
+  <si>
+    <t>deprave 使堕落</t>
+  </si>
+  <si>
+    <t>invade 入侵</t>
+  </si>
+  <si>
+    <t>evade 逃避</t>
+  </si>
+  <si>
+    <t>fuse 熔化</t>
+  </si>
+  <si>
+    <t>profuse 丰富的，浪费的</t>
+  </si>
+  <si>
+    <t>infuse 注入。鼓励</t>
+  </si>
+  <si>
+    <t>discern 辨别</t>
+  </si>
+  <si>
+    <t>concern 担忧</t>
+  </si>
+  <si>
+    <t>profound 深远的</t>
+  </si>
+  <si>
+    <t>confound 使迷惑</t>
+  </si>
+  <si>
+    <t>词根pute含义"认为"</t>
+  </si>
+  <si>
+    <t>impute 归咎于</t>
+  </si>
+  <si>
+    <t>dispute 争论</t>
+  </si>
+  <si>
+    <t>reproach 指责</t>
+  </si>
+  <si>
+    <t>approach 接近，着手处理</t>
+  </si>
+  <si>
+    <t>vocation 职业</t>
+  </si>
+  <si>
+    <t>avocation 副业</t>
+  </si>
+  <si>
+    <t>provocation 挑衅</t>
+  </si>
+  <si>
+    <t>advocation 拥护</t>
+  </si>
+  <si>
+    <t>inflict 强加给，刑罚</t>
+  </si>
+  <si>
+    <t>afflict 使受苦</t>
+  </si>
+  <si>
+    <t>impugn 指责</t>
+  </si>
+  <si>
+    <t>repugnance 厌恶，抵触</t>
+  </si>
+  <si>
+    <t>pugnacious 好斗的</t>
+  </si>
+  <si>
+    <t>pungent 刺激性的</t>
+  </si>
+  <si>
+    <t>impunity 不受惩罚</t>
+  </si>
+  <si>
+    <t>prudent 谨慎的</t>
+  </si>
+  <si>
+    <t>imprudent 不明智的(联想prove)</t>
+  </si>
+  <si>
+    <t>impudent 粗鲁无礼的(联想pure)</t>
+  </si>
+  <si>
+    <t>elude 逃避</t>
+  </si>
+  <si>
+    <t>delude 欺骗</t>
+  </si>
+  <si>
+    <t>deluge 洪水</t>
+  </si>
+  <si>
+    <t>devour 狼吞虎咽</t>
+  </si>
+  <si>
+    <t>devout 献身的</t>
+  </si>
+  <si>
+    <t>daunt 使气馁</t>
+  </si>
+  <si>
+    <t>taunt 嘲笑   taut 紧绷的 tout 招揽顾客的人</t>
+  </si>
+  <si>
+    <t>haunt 萦绕在心头</t>
+  </si>
+  <si>
+    <t>flaunt 炫耀</t>
+  </si>
+  <si>
+    <t>indignant 愤怒的</t>
+  </si>
+  <si>
+    <t>indignity 羞辱</t>
+  </si>
+  <si>
+    <t>indigent 贫穷的</t>
+  </si>
+  <si>
+    <t>indigenous 土生土长的，固有的</t>
+  </si>
+  <si>
+    <t>discrete 分离(concrete凝固)</t>
+  </si>
+  <si>
+    <t>discreet 谨慎的</t>
+  </si>
+  <si>
+    <t>discretion 谨慎</t>
+  </si>
+  <si>
+    <t>accrete 逐渐增长</t>
+  </si>
+  <si>
+    <t>ascetic 禁欲的</t>
+  </si>
+  <si>
+    <t>aesthetic 审美学的</t>
+  </si>
+  <si>
+    <t>atheist 无神论者</t>
+  </si>
+  <si>
+    <t>consort 伙伴</t>
+  </si>
+  <si>
+    <t>resort 诉诸，度假村</t>
+  </si>
+  <si>
+    <t>surrogate 代替(虽然有rog词根，但不是)</t>
+  </si>
+  <si>
+    <t>prerogative 特权的</t>
+  </si>
+  <si>
+    <t>vogue 时尚</t>
+  </si>
+  <si>
+    <t>vague 模糊</t>
+  </si>
+  <si>
+    <t>intimate 亲密的。暗示</t>
+  </si>
+  <si>
+    <t>intimidate 恐吓</t>
+  </si>
+  <si>
+    <t>imitate 模仿</t>
+  </si>
+  <si>
+    <t>mitigate 减轻</t>
+  </si>
+  <si>
+    <t>iritate 刺激，使兴奋</t>
+  </si>
+  <si>
+    <t>irigate 冲刷，灌溉</t>
+  </si>
+  <si>
+    <t>vindicate 证明无辜</t>
+  </si>
+  <si>
+    <t>vindictive 怀有报复心的</t>
+  </si>
+  <si>
+    <t>mise 协定</t>
+  </si>
+  <si>
+    <t>surmise 推测</t>
+  </si>
+  <si>
+    <t>premise 前提</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -13999,6 +14638,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -14020,7 +14665,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -14031,6 +14676,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -14333,10 +14979,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:C1686"/>
+  <dimension ref="A2:C1978"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1521" workbookViewId="0">
-      <selection activeCell="A1531" sqref="A1531:XFD1686"/>
+    <sheetView tabSelected="1" topLeftCell="A1671" workbookViewId="0">
+      <selection activeCell="B1696" sqref="B1696"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -28433,6 +29079,1308 @@
         <v>3228</v>
       </c>
     </row>
+    <row r="1687" spans="1:2">
+      <c r="A1687" s="4" t="s">
+        <v>3537</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:2">
+      <c r="A1688" s="4" t="s">
+        <v>3538</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:2">
+      <c r="A1689"/>
+    </row>
+    <row r="1690" spans="1:2">
+      <c r="A1690" s="4" t="s">
+        <v>3539</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:2">
+      <c r="A1691" s="4" t="s">
+        <v>3540</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:2">
+      <c r="A1692"/>
+    </row>
+    <row r="1693" spans="1:2">
+      <c r="A1693" s="4" t="s">
+        <v>3541</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:2">
+      <c r="A1694" s="4" t="s">
+        <v>3542</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:2">
+      <c r="A1695"/>
+    </row>
+    <row r="1696" spans="1:2">
+      <c r="A1696" s="4" t="s">
+        <v>3543</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:1">
+      <c r="A1697" s="4" t="s">
+        <v>3544</v>
+      </c>
+    </row>
+    <row r="1698" spans="1:1">
+      <c r="A1698"/>
+    </row>
+    <row r="1699" spans="1:1">
+      <c r="A1699" s="4" t="s">
+        <v>3545</v>
+      </c>
+    </row>
+    <row r="1700" spans="1:1">
+      <c r="A1700" s="4" t="s">
+        <v>3546</v>
+      </c>
+    </row>
+    <row r="1701" spans="1:1">
+      <c r="A1701"/>
+    </row>
+    <row r="1702" spans="1:1">
+      <c r="A1702" s="4" t="s">
+        <v>3547</v>
+      </c>
+    </row>
+    <row r="1703" spans="1:1">
+      <c r="A1703" s="4" t="s">
+        <v>3548</v>
+      </c>
+    </row>
+    <row r="1704" spans="1:1">
+      <c r="A1704"/>
+    </row>
+    <row r="1705" spans="1:1">
+      <c r="A1705" s="4" t="s">
+        <v>3549</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:1">
+      <c r="A1706" s="4" t="s">
+        <v>3550</v>
+      </c>
+    </row>
+    <row r="1707" spans="1:1">
+      <c r="A1707" s="4" t="s">
+        <v>3551</v>
+      </c>
+    </row>
+    <row r="1708" spans="1:1">
+      <c r="A1708"/>
+    </row>
+    <row r="1709" spans="1:1">
+      <c r="A1709" s="4" t="s">
+        <v>3552</v>
+      </c>
+    </row>
+    <row r="1710" spans="1:1">
+      <c r="A1710" s="4" t="s">
+        <v>3553</v>
+      </c>
+    </row>
+    <row r="1711" spans="1:1">
+      <c r="A1711"/>
+    </row>
+    <row r="1712" spans="1:1">
+      <c r="A1712" s="4" t="s">
+        <v>3554</v>
+      </c>
+    </row>
+    <row r="1713" spans="1:1">
+      <c r="A1713" s="4" t="s">
+        <v>3555</v>
+      </c>
+    </row>
+    <row r="1714" spans="1:1">
+      <c r="A1714"/>
+    </row>
+    <row r="1715" spans="1:1">
+      <c r="A1715" s="4" t="s">
+        <v>3556</v>
+      </c>
+    </row>
+    <row r="1716" spans="1:1">
+      <c r="A1716"/>
+    </row>
+    <row r="1717" spans="1:1">
+      <c r="A1717" s="4" t="s">
+        <v>3557</v>
+      </c>
+    </row>
+    <row r="1718" spans="1:1">
+      <c r="A1718" s="4" t="s">
+        <v>3558</v>
+      </c>
+    </row>
+    <row r="1719" spans="1:1">
+      <c r="A1719"/>
+    </row>
+    <row r="1720" spans="1:1">
+      <c r="A1720" s="4" t="s">
+        <v>3559</v>
+      </c>
+    </row>
+    <row r="1721" spans="1:1">
+      <c r="A1721" s="4" t="s">
+        <v>3560</v>
+      </c>
+    </row>
+    <row r="1722" spans="1:1">
+      <c r="A1722"/>
+    </row>
+    <row r="1723" spans="1:1">
+      <c r="A1723" s="4" t="s">
+        <v>3561</v>
+      </c>
+    </row>
+    <row r="1724" spans="1:1">
+      <c r="A1724" s="4" t="s">
+        <v>3562</v>
+      </c>
+    </row>
+    <row r="1725" spans="1:1">
+      <c r="A1725"/>
+    </row>
+    <row r="1726" spans="1:1">
+      <c r="A1726" s="4" t="s">
+        <v>3563</v>
+      </c>
+    </row>
+    <row r="1727" spans="1:1">
+      <c r="A1727" s="4" t="s">
+        <v>3564</v>
+      </c>
+    </row>
+    <row r="1728" spans="1:1">
+      <c r="A1728"/>
+    </row>
+    <row r="1729" spans="1:1">
+      <c r="A1729" s="4" t="s">
+        <v>3565</v>
+      </c>
+    </row>
+    <row r="1730" spans="1:1">
+      <c r="A1730" s="4" t="s">
+        <v>3566</v>
+      </c>
+    </row>
+    <row r="1731" spans="1:1">
+      <c r="A1731"/>
+    </row>
+    <row r="1732" spans="1:1">
+      <c r="A1732" s="4" t="s">
+        <v>3567</v>
+      </c>
+    </row>
+    <row r="1733" spans="1:1">
+      <c r="A1733" s="4" t="s">
+        <v>3568</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:1">
+      <c r="A1734" s="4" t="s">
+        <v>3569</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:1">
+      <c r="A1735"/>
+    </row>
+    <row r="1736" spans="1:1">
+      <c r="A1736" s="4" t="s">
+        <v>3570</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:1">
+      <c r="A1737" s="4" t="s">
+        <v>3571</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:1">
+      <c r="A1738"/>
+    </row>
+    <row r="1739" spans="1:1">
+      <c r="A1739" s="4" t="s">
+        <v>3572</v>
+      </c>
+    </row>
+    <row r="1740" spans="1:1">
+      <c r="A1740" s="4" t="s">
+        <v>3573</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:1">
+      <c r="A1741" s="4" t="s">
+        <v>3574</v>
+      </c>
+    </row>
+    <row r="1742" spans="1:1">
+      <c r="A1742"/>
+    </row>
+    <row r="1743" spans="1:1">
+      <c r="A1743" s="4" t="s">
+        <v>3575</v>
+      </c>
+    </row>
+    <row r="1744" spans="1:1">
+      <c r="A1744" s="4" t="s">
+        <v>3576</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:1">
+      <c r="A1745" s="4" t="s">
+        <v>3577</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:1">
+      <c r="A1746" s="4" t="s">
+        <v>3578</v>
+      </c>
+    </row>
+    <row r="1747" spans="1:1">
+      <c r="A1747" s="4" t="s">
+        <v>3579</v>
+      </c>
+    </row>
+    <row r="1748" spans="1:1">
+      <c r="A1748" s="4" t="s">
+        <v>3580</v>
+      </c>
+    </row>
+    <row r="1749" spans="1:1">
+      <c r="A1749" s="4" t="s">
+        <v>3581</v>
+      </c>
+    </row>
+    <row r="1750" spans="1:1">
+      <c r="A1750" s="4" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="1751" spans="1:1">
+      <c r="A1751"/>
+    </row>
+    <row r="1752" spans="1:1">
+      <c r="A1752" s="4" t="s">
+        <v>3583</v>
+      </c>
+    </row>
+    <row r="1753" spans="1:1">
+      <c r="A1753" s="4" t="s">
+        <v>3584</v>
+      </c>
+    </row>
+    <row r="1754" spans="1:1">
+      <c r="A1754" s="4" t="s">
+        <v>3585</v>
+      </c>
+    </row>
+    <row r="1755" spans="1:1">
+      <c r="A1755"/>
+    </row>
+    <row r="1756" spans="1:1">
+      <c r="A1756" s="4" t="s">
+        <v>3586</v>
+      </c>
+    </row>
+    <row r="1757" spans="1:1">
+      <c r="A1757" s="4" t="s">
+        <v>3587</v>
+      </c>
+    </row>
+    <row r="1758" spans="1:1">
+      <c r="A1758" s="4" t="s">
+        <v>3588</v>
+      </c>
+    </row>
+    <row r="1759" spans="1:1">
+      <c r="A1759"/>
+    </row>
+    <row r="1760" spans="1:1">
+      <c r="A1760" s="4" t="s">
+        <v>3589</v>
+      </c>
+    </row>
+    <row r="1761" spans="1:1">
+      <c r="A1761" s="4" t="s">
+        <v>3590</v>
+      </c>
+    </row>
+    <row r="1762" spans="1:1">
+      <c r="A1762" s="4" t="s">
+        <v>3591</v>
+      </c>
+    </row>
+    <row r="1763" spans="1:1">
+      <c r="A1763"/>
+    </row>
+    <row r="1764" spans="1:1">
+      <c r="A1764" s="4" t="s">
+        <v>3592</v>
+      </c>
+    </row>
+    <row r="1765" spans="1:1">
+      <c r="A1765" s="4" t="s">
+        <v>3593</v>
+      </c>
+    </row>
+    <row r="1766" spans="1:1">
+      <c r="A1766"/>
+    </row>
+    <row r="1767" spans="1:1">
+      <c r="A1767" s="4" t="s">
+        <v>3594</v>
+      </c>
+    </row>
+    <row r="1768" spans="1:1">
+      <c r="A1768" s="4" t="s">
+        <v>3595</v>
+      </c>
+    </row>
+    <row r="1769" spans="1:1">
+      <c r="A1769"/>
+    </row>
+    <row r="1770" spans="1:1">
+      <c r="A1770" s="4" t="s">
+        <v>3596</v>
+      </c>
+    </row>
+    <row r="1771" spans="1:1">
+      <c r="A1771" s="4" t="s">
+        <v>3597</v>
+      </c>
+    </row>
+    <row r="1772" spans="1:1">
+      <c r="A1772"/>
+    </row>
+    <row r="1773" spans="1:1">
+      <c r="A1773" s="4" t="s">
+        <v>3598</v>
+      </c>
+    </row>
+    <row r="1774" spans="1:1">
+      <c r="A1774" s="4" t="s">
+        <v>3599</v>
+      </c>
+    </row>
+    <row r="1775" spans="1:1">
+      <c r="A1775"/>
+    </row>
+    <row r="1776" spans="1:1">
+      <c r="A1776" s="4" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="1777" spans="1:1">
+      <c r="A1777" s="4" t="s">
+        <v>3601</v>
+      </c>
+    </row>
+    <row r="1778" spans="1:1">
+      <c r="A1778"/>
+    </row>
+    <row r="1779" spans="1:1">
+      <c r="A1779" s="4" t="s">
+        <v>3602</v>
+      </c>
+    </row>
+    <row r="1780" spans="1:1">
+      <c r="A1780" s="4" t="s">
+        <v>3603</v>
+      </c>
+    </row>
+    <row r="1781" spans="1:1">
+      <c r="A1781" s="4" t="s">
+        <v>3604</v>
+      </c>
+    </row>
+    <row r="1782" spans="1:1">
+      <c r="A1782"/>
+    </row>
+    <row r="1783" spans="1:1">
+      <c r="A1783" s="4" t="s">
+        <v>3605</v>
+      </c>
+    </row>
+    <row r="1784" spans="1:1">
+      <c r="A1784" s="4" t="s">
+        <v>3606</v>
+      </c>
+    </row>
+    <row r="1785" spans="1:1">
+      <c r="A1785"/>
+    </row>
+    <row r="1786" spans="1:1">
+      <c r="A1786" s="4" t="s">
+        <v>3607</v>
+      </c>
+    </row>
+    <row r="1787" spans="1:1">
+      <c r="A1787" s="4" t="s">
+        <v>3608</v>
+      </c>
+    </row>
+    <row r="1788" spans="1:1">
+      <c r="A1788"/>
+    </row>
+    <row r="1789" spans="1:1">
+      <c r="A1789" s="4" t="s">
+        <v>3609</v>
+      </c>
+    </row>
+    <row r="1790" spans="1:1">
+      <c r="A1790" s="4" t="s">
+        <v>3610</v>
+      </c>
+    </row>
+    <row r="1791" spans="1:1">
+      <c r="A1791"/>
+    </row>
+    <row r="1792" spans="1:1">
+      <c r="A1792" s="4" t="s">
+        <v>3611</v>
+      </c>
+    </row>
+    <row r="1793" spans="1:1">
+      <c r="A1793"/>
+    </row>
+    <row r="1794" spans="1:1">
+      <c r="A1794" s="4" t="s">
+        <v>3612</v>
+      </c>
+    </row>
+    <row r="1795" spans="1:1">
+      <c r="A1795" s="4" t="s">
+        <v>3613</v>
+      </c>
+    </row>
+    <row r="1796" spans="1:1">
+      <c r="A1796" s="4" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1797" spans="1:1">
+      <c r="A1797" s="4" t="s">
+        <v>3615</v>
+      </c>
+    </row>
+    <row r="1798" spans="1:1">
+      <c r="A1798"/>
+    </row>
+    <row r="1799" spans="1:1">
+      <c r="A1799" s="4" t="s">
+        <v>3616</v>
+      </c>
+    </row>
+    <row r="1800" spans="1:1">
+      <c r="A1800" s="4" t="s">
+        <v>3617</v>
+      </c>
+    </row>
+    <row r="1801" spans="1:1">
+      <c r="A1801" s="4" t="s">
+        <v>3618</v>
+      </c>
+    </row>
+    <row r="1802" spans="1:1">
+      <c r="A1802"/>
+    </row>
+    <row r="1803" spans="1:1">
+      <c r="A1803" s="4" t="s">
+        <v>3619</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:1">
+      <c r="A1804" s="4" t="s">
+        <v>3620</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:1">
+      <c r="A1805" s="4" t="s">
+        <v>3621</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:1">
+      <c r="A1806"/>
+    </row>
+    <row r="1807" spans="1:1">
+      <c r="A1807" s="4" t="s">
+        <v>3622</v>
+      </c>
+    </row>
+    <row r="1808" spans="1:1">
+      <c r="A1808" s="4" t="s">
+        <v>3623</v>
+      </c>
+    </row>
+    <row r="1809" spans="1:1">
+      <c r="A1809"/>
+    </row>
+    <row r="1810" spans="1:1">
+      <c r="A1810" s="4" t="s">
+        <v>3624</v>
+      </c>
+    </row>
+    <row r="1811" spans="1:1">
+      <c r="A1811" s="4" t="s">
+        <v>3625</v>
+      </c>
+    </row>
+    <row r="1812" spans="1:1">
+      <c r="A1812" s="4" t="s">
+        <v>3626</v>
+      </c>
+    </row>
+    <row r="1813" spans="1:1">
+      <c r="A1813" s="4" t="s">
+        <v>3627</v>
+      </c>
+    </row>
+    <row r="1814" spans="1:1">
+      <c r="A1814" s="4" t="s">
+        <v>3628</v>
+      </c>
+    </row>
+    <row r="1815" spans="1:1">
+      <c r="A1815"/>
+    </row>
+    <row r="1816" spans="1:1">
+      <c r="A1816" s="4" t="s">
+        <v>3629</v>
+      </c>
+    </row>
+    <row r="1817" spans="1:1">
+      <c r="A1817" s="4" t="s">
+        <v>3630</v>
+      </c>
+    </row>
+    <row r="1818" spans="1:1">
+      <c r="A1818"/>
+    </row>
+    <row r="1819" spans="1:1">
+      <c r="A1819" s="4" t="s">
+        <v>3631</v>
+      </c>
+    </row>
+    <row r="1820" spans="1:1">
+      <c r="A1820" s="4" t="s">
+        <v>3632</v>
+      </c>
+    </row>
+    <row r="1821" spans="1:1">
+      <c r="A1821"/>
+    </row>
+    <row r="1822" spans="1:1">
+      <c r="A1822" s="4" t="s">
+        <v>3633</v>
+      </c>
+    </row>
+    <row r="1823" spans="1:1">
+      <c r="A1823" s="4" t="s">
+        <v>3634</v>
+      </c>
+    </row>
+    <row r="1824" spans="1:1">
+      <c r="A1824"/>
+    </row>
+    <row r="1825" spans="1:1">
+      <c r="A1825" s="4" t="s">
+        <v>3635</v>
+      </c>
+    </row>
+    <row r="1826" spans="1:1">
+      <c r="A1826" s="4" t="s">
+        <v>3636</v>
+      </c>
+    </row>
+    <row r="1827" spans="1:1">
+      <c r="A1827" s="4" t="s">
+        <v>3637</v>
+      </c>
+    </row>
+    <row r="1828" spans="1:1">
+      <c r="A1828"/>
+    </row>
+    <row r="1829" spans="1:1">
+      <c r="A1829" s="4" t="s">
+        <v>3638</v>
+      </c>
+    </row>
+    <row r="1830" spans="1:1">
+      <c r="A1830" s="4" t="s">
+        <v>3639</v>
+      </c>
+    </row>
+    <row r="1831" spans="1:1">
+      <c r="A1831"/>
+    </row>
+    <row r="1832" spans="1:1">
+      <c r="A1832" s="4" t="s">
+        <v>3640</v>
+      </c>
+    </row>
+    <row r="1833" spans="1:1">
+      <c r="A1833" s="4" t="s">
+        <v>3641</v>
+      </c>
+    </row>
+    <row r="1834" spans="1:1">
+      <c r="A1834" s="4" t="s">
+        <v>3642</v>
+      </c>
+    </row>
+    <row r="1835" spans="1:1">
+      <c r="A1835" s="4" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="1836" spans="1:1">
+      <c r="A1836"/>
+    </row>
+    <row r="1837" spans="1:1">
+      <c r="A1837" s="4" t="s">
+        <v>3644</v>
+      </c>
+    </row>
+    <row r="1838" spans="1:1">
+      <c r="A1838" s="4" t="s">
+        <v>3645</v>
+      </c>
+    </row>
+    <row r="1839" spans="1:1">
+      <c r="A1839" s="4" t="s">
+        <v>3646</v>
+      </c>
+    </row>
+    <row r="1840" spans="1:1">
+      <c r="A1840" s="4" t="s">
+        <v>3647</v>
+      </c>
+    </row>
+    <row r="1841" spans="1:1">
+      <c r="A1841" s="4" t="s">
+        <v>3648</v>
+      </c>
+    </row>
+    <row r="1842" spans="1:1">
+      <c r="A1842"/>
+    </row>
+    <row r="1843" spans="1:1">
+      <c r="A1843" s="4" t="s">
+        <v>3649</v>
+      </c>
+    </row>
+    <row r="1844" spans="1:1">
+      <c r="A1844" s="4" t="s">
+        <v>3650</v>
+      </c>
+    </row>
+    <row r="1845" spans="1:1">
+      <c r="A1845"/>
+    </row>
+    <row r="1846" spans="1:1">
+      <c r="A1846" s="4" t="s">
+        <v>3651</v>
+      </c>
+    </row>
+    <row r="1847" spans="1:1">
+      <c r="A1847" s="4" t="s">
+        <v>3652</v>
+      </c>
+    </row>
+    <row r="1848" spans="1:1">
+      <c r="A1848" s="4" t="s">
+        <v>3653</v>
+      </c>
+    </row>
+    <row r="1849" spans="1:1">
+      <c r="A1849"/>
+    </row>
+    <row r="1850" spans="1:1">
+      <c r="A1850" s="4" t="s">
+        <v>3654</v>
+      </c>
+    </row>
+    <row r="1851" spans="1:1">
+      <c r="A1851" s="4" t="s">
+        <v>3655</v>
+      </c>
+    </row>
+    <row r="1852" spans="1:1">
+      <c r="A1852"/>
+    </row>
+    <row r="1853" spans="1:1">
+      <c r="A1853" s="4" t="s">
+        <v>3656</v>
+      </c>
+    </row>
+    <row r="1854" spans="1:1">
+      <c r="A1854" s="4" t="s">
+        <v>3657</v>
+      </c>
+    </row>
+    <row r="1855" spans="1:1">
+      <c r="A1855" s="4" t="s">
+        <v>3658</v>
+      </c>
+    </row>
+    <row r="1856" spans="1:1">
+      <c r="A1856"/>
+    </row>
+    <row r="1857" spans="1:1">
+      <c r="A1857" s="4" t="s">
+        <v>3659</v>
+      </c>
+    </row>
+    <row r="1858" spans="1:1">
+      <c r="A1858" s="4" t="s">
+        <v>3660</v>
+      </c>
+    </row>
+    <row r="1859" spans="1:1">
+      <c r="A1859"/>
+    </row>
+    <row r="1860" spans="1:1">
+      <c r="A1860" s="4" t="s">
+        <v>3661</v>
+      </c>
+    </row>
+    <row r="1861" spans="1:1">
+      <c r="A1861" s="4" t="s">
+        <v>3662</v>
+      </c>
+    </row>
+    <row r="1862" spans="1:1">
+      <c r="A1862" s="4" t="s">
+        <v>3663</v>
+      </c>
+    </row>
+    <row r="1863" spans="1:1">
+      <c r="A1863"/>
+    </row>
+    <row r="1864" spans="1:1">
+      <c r="A1864" s="4" t="s">
+        <v>3664</v>
+      </c>
+    </row>
+    <row r="1865" spans="1:1">
+      <c r="A1865" s="4" t="s">
+        <v>3665</v>
+      </c>
+    </row>
+    <row r="1866" spans="1:1">
+      <c r="A1866" s="4" t="s">
+        <v>3666</v>
+      </c>
+    </row>
+    <row r="1867" spans="1:1">
+      <c r="A1867" s="4" t="s">
+        <v>3667</v>
+      </c>
+    </row>
+    <row r="1868" spans="1:1">
+      <c r="A1868"/>
+    </row>
+    <row r="1869" spans="1:1">
+      <c r="A1869" s="4" t="s">
+        <v>3668</v>
+      </c>
+    </row>
+    <row r="1870" spans="1:1">
+      <c r="A1870" s="4" t="s">
+        <v>3669</v>
+      </c>
+    </row>
+    <row r="1871" spans="1:1">
+      <c r="A1871" s="4" t="s">
+        <v>3670</v>
+      </c>
+    </row>
+    <row r="1872" spans="1:1">
+      <c r="A1872"/>
+    </row>
+    <row r="1873" spans="1:1">
+      <c r="A1873" s="4" t="s">
+        <v>3671</v>
+      </c>
+    </row>
+    <row r="1874" spans="1:1">
+      <c r="A1874" s="4" t="s">
+        <v>3672</v>
+      </c>
+    </row>
+    <row r="1875" spans="1:1">
+      <c r="A1875" s="4" t="s">
+        <v>3673</v>
+      </c>
+    </row>
+    <row r="1876" spans="1:1">
+      <c r="A1876" s="4" t="s">
+        <v>3674</v>
+      </c>
+    </row>
+    <row r="1877" spans="1:1">
+      <c r="A1877"/>
+    </row>
+    <row r="1878" spans="1:1">
+      <c r="A1878" s="4" t="s">
+        <v>3675</v>
+      </c>
+    </row>
+    <row r="1879" spans="1:1">
+      <c r="A1879"/>
+    </row>
+    <row r="1880" spans="1:1">
+      <c r="A1880" s="4" t="s">
+        <v>3676</v>
+      </c>
+    </row>
+    <row r="1881" spans="1:1">
+      <c r="A1881" s="4" t="s">
+        <v>3677</v>
+      </c>
+    </row>
+    <row r="1882" spans="1:1">
+      <c r="A1882" s="4" t="s">
+        <v>3678</v>
+      </c>
+    </row>
+    <row r="1883" spans="1:1">
+      <c r="A1883"/>
+    </row>
+    <row r="1884" spans="1:1">
+      <c r="A1884" s="4" t="s">
+        <v>3679</v>
+      </c>
+    </row>
+    <row r="1885" spans="1:1">
+      <c r="A1885" s="4" t="s">
+        <v>3680</v>
+      </c>
+    </row>
+    <row r="1886" spans="1:1">
+      <c r="A1886" s="4" t="s">
+        <v>3681</v>
+      </c>
+    </row>
+    <row r="1887" spans="1:1">
+      <c r="A1887"/>
+    </row>
+    <row r="1888" spans="1:1">
+      <c r="A1888" s="4" t="s">
+        <v>3682</v>
+      </c>
+    </row>
+    <row r="1889" spans="1:1">
+      <c r="A1889" s="4" t="s">
+        <v>3683</v>
+      </c>
+    </row>
+    <row r="1890" spans="1:1">
+      <c r="A1890" s="4" t="s">
+        <v>3684</v>
+      </c>
+    </row>
+    <row r="1891" spans="1:1">
+      <c r="A1891"/>
+    </row>
+    <row r="1892" spans="1:1">
+      <c r="A1892" s="4" t="s">
+        <v>3685</v>
+      </c>
+    </row>
+    <row r="1893" spans="1:1">
+      <c r="A1893" s="4" t="s">
+        <v>3686</v>
+      </c>
+    </row>
+    <row r="1894" spans="1:1">
+      <c r="A1894"/>
+    </row>
+    <row r="1895" spans="1:1">
+      <c r="A1895" s="4" t="s">
+        <v>3687</v>
+      </c>
+    </row>
+    <row r="1896" spans="1:1">
+      <c r="A1896" s="4" t="s">
+        <v>3688</v>
+      </c>
+    </row>
+    <row r="1897" spans="1:1">
+      <c r="A1897" s="4" t="s">
+        <v>3689</v>
+      </c>
+    </row>
+    <row r="1898" spans="1:1">
+      <c r="A1898"/>
+    </row>
+    <row r="1899" spans="1:1">
+      <c r="A1899" s="4" t="s">
+        <v>3690</v>
+      </c>
+    </row>
+    <row r="1900" spans="1:1">
+      <c r="A1900" s="4" t="s">
+        <v>3691</v>
+      </c>
+    </row>
+    <row r="1901" spans="1:1">
+      <c r="A1901"/>
+    </row>
+    <row r="1902" spans="1:1">
+      <c r="A1902" s="4" t="s">
+        <v>3692</v>
+      </c>
+    </row>
+    <row r="1903" spans="1:1">
+      <c r="A1903" s="4" t="s">
+        <v>3693</v>
+      </c>
+    </row>
+    <row r="1904" spans="1:1">
+      <c r="A1904"/>
+    </row>
+    <row r="1905" spans="1:1">
+      <c r="A1905" s="4" t="s">
+        <v>3694</v>
+      </c>
+    </row>
+    <row r="1906" spans="1:1">
+      <c r="A1906" s="4" t="s">
+        <v>3695</v>
+      </c>
+    </row>
+    <row r="1907" spans="1:1">
+      <c r="A1907" s="4" t="s">
+        <v>3696</v>
+      </c>
+    </row>
+    <row r="1908" spans="1:1">
+      <c r="A1908"/>
+    </row>
+    <row r="1909" spans="1:1">
+      <c r="A1909" s="4" t="s">
+        <v>3697</v>
+      </c>
+    </row>
+    <row r="1910" spans="1:1">
+      <c r="A1910" s="4" t="s">
+        <v>3698</v>
+      </c>
+    </row>
+    <row r="1911" spans="1:1">
+      <c r="A1911"/>
+    </row>
+    <row r="1912" spans="1:1">
+      <c r="A1912" s="4" t="s">
+        <v>3699</v>
+      </c>
+    </row>
+    <row r="1913" spans="1:1">
+      <c r="A1913" s="4" t="s">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="1914" spans="1:1">
+      <c r="A1914" s="4" t="s">
+        <v>3701</v>
+      </c>
+    </row>
+    <row r="1915" spans="1:1">
+      <c r="A1915" s="4" t="s">
+        <v>3702</v>
+      </c>
+    </row>
+    <row r="1916" spans="1:1">
+      <c r="A1916"/>
+    </row>
+    <row r="1917" spans="1:1">
+      <c r="A1917" s="4" t="s">
+        <v>3703</v>
+      </c>
+    </row>
+    <row r="1918" spans="1:1">
+      <c r="A1918" s="4" t="s">
+        <v>3704</v>
+      </c>
+    </row>
+    <row r="1919" spans="1:1">
+      <c r="A1919"/>
+    </row>
+    <row r="1920" spans="1:1">
+      <c r="A1920" s="4" t="s">
+        <v>3705</v>
+      </c>
+    </row>
+    <row r="1921" spans="1:1">
+      <c r="A1921" s="4" t="s">
+        <v>3706</v>
+      </c>
+    </row>
+    <row r="1922" spans="1:1">
+      <c r="A1922" s="4" t="s">
+        <v>3707</v>
+      </c>
+    </row>
+    <row r="1923" spans="1:1">
+      <c r="A1923" s="4" t="s">
+        <v>3708</v>
+      </c>
+    </row>
+    <row r="1924" spans="1:1">
+      <c r="A1924" s="4" t="s">
+        <v>3709</v>
+      </c>
+    </row>
+    <row r="1925" spans="1:1">
+      <c r="A1925"/>
+    </row>
+    <row r="1926" spans="1:1">
+      <c r="A1926" s="4" t="s">
+        <v>3710</v>
+      </c>
+    </row>
+    <row r="1927" spans="1:1">
+      <c r="A1927" s="4" t="s">
+        <v>3711</v>
+      </c>
+    </row>
+    <row r="1928" spans="1:1">
+      <c r="A1928" s="4" t="s">
+        <v>3712</v>
+      </c>
+    </row>
+    <row r="1929" spans="1:1">
+      <c r="A1929"/>
+    </row>
+    <row r="1930" spans="1:1">
+      <c r="A1930" s="4" t="s">
+        <v>3713</v>
+      </c>
+    </row>
+    <row r="1931" spans="1:1">
+      <c r="A1931" s="4" t="s">
+        <v>3714</v>
+      </c>
+    </row>
+    <row r="1932" spans="1:1">
+      <c r="A1932" s="4" t="s">
+        <v>3715</v>
+      </c>
+    </row>
+    <row r="1933" spans="1:1">
+      <c r="A1933"/>
+    </row>
+    <row r="1934" spans="1:1">
+      <c r="A1934" s="4" t="s">
+        <v>3716</v>
+      </c>
+    </row>
+    <row r="1935" spans="1:1">
+      <c r="A1935" s="4" t="s">
+        <v>3717</v>
+      </c>
+    </row>
+    <row r="1936" spans="1:1">
+      <c r="A1936"/>
+    </row>
+    <row r="1937" spans="1:1">
+      <c r="A1937" s="4" t="s">
+        <v>3718</v>
+      </c>
+    </row>
+    <row r="1938" spans="1:1">
+      <c r="A1938" s="4" t="s">
+        <v>3719</v>
+      </c>
+    </row>
+    <row r="1939" spans="1:1">
+      <c r="A1939" s="4" t="s">
+        <v>3720</v>
+      </c>
+    </row>
+    <row r="1940" spans="1:1">
+      <c r="A1940" s="4" t="s">
+        <v>3721</v>
+      </c>
+    </row>
+    <row r="1941" spans="1:1">
+      <c r="A1941"/>
+    </row>
+    <row r="1942" spans="1:1">
+      <c r="A1942" s="4" t="s">
+        <v>3722</v>
+      </c>
+    </row>
+    <row r="1943" spans="1:1">
+      <c r="A1943" s="4" t="s">
+        <v>3723</v>
+      </c>
+    </row>
+    <row r="1944" spans="1:1">
+      <c r="A1944" s="4" t="s">
+        <v>3724</v>
+      </c>
+    </row>
+    <row r="1945" spans="1:1">
+      <c r="A1945" s="4" t="s">
+        <v>3725</v>
+      </c>
+    </row>
+    <row r="1946" spans="1:1">
+      <c r="A1946"/>
+    </row>
+    <row r="1947" spans="1:1">
+      <c r="A1947" s="4" t="s">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="1948" spans="1:1">
+      <c r="A1948" s="4" t="s">
+        <v>3727</v>
+      </c>
+    </row>
+    <row r="1949" spans="1:1">
+      <c r="A1949" s="4" t="s">
+        <v>3728</v>
+      </c>
+    </row>
+    <row r="1950" spans="1:1">
+      <c r="A1950" s="4" t="s">
+        <v>3729</v>
+      </c>
+    </row>
+    <row r="1951" spans="1:1">
+      <c r="A1951"/>
+    </row>
+    <row r="1952" spans="1:1">
+      <c r="A1952" s="4" t="s">
+        <v>3730</v>
+      </c>
+    </row>
+    <row r="1953" spans="1:1">
+      <c r="A1953" s="4" t="s">
+        <v>3731</v>
+      </c>
+    </row>
+    <row r="1954" spans="1:1">
+      <c r="A1954" s="4" t="s">
+        <v>3732</v>
+      </c>
+    </row>
+    <row r="1955" spans="1:1">
+      <c r="A1955"/>
+    </row>
+    <row r="1956" spans="1:1">
+      <c r="A1956" s="4" t="s">
+        <v>3733</v>
+      </c>
+    </row>
+    <row r="1957" spans="1:1">
+      <c r="A1957" s="4" t="s">
+        <v>3734</v>
+      </c>
+    </row>
+    <row r="1958" spans="1:1">
+      <c r="A1958"/>
+    </row>
+    <row r="1959" spans="1:1">
+      <c r="A1959" s="4" t="s">
+        <v>3735</v>
+      </c>
+    </row>
+    <row r="1960" spans="1:1">
+      <c r="A1960" s="4" t="s">
+        <v>3736</v>
+      </c>
+    </row>
+    <row r="1961" spans="1:1">
+      <c r="A1961"/>
+    </row>
+    <row r="1962" spans="1:1">
+      <c r="A1962" s="4" t="s">
+        <v>3737</v>
+      </c>
+    </row>
+    <row r="1963" spans="1:1">
+      <c r="A1963" s="4" t="s">
+        <v>3738</v>
+      </c>
+    </row>
+    <row r="1964" spans="1:1">
+      <c r="A1964"/>
+    </row>
+    <row r="1965" spans="1:1">
+      <c r="A1965" s="4" t="s">
+        <v>3739</v>
+      </c>
+    </row>
+    <row r="1966" spans="1:1">
+      <c r="A1966" s="4" t="s">
+        <v>3740</v>
+      </c>
+    </row>
+    <row r="1967" spans="1:1">
+      <c r="A1967" s="4" t="s">
+        <v>3741</v>
+      </c>
+    </row>
+    <row r="1968" spans="1:1">
+      <c r="A1968" s="4" t="s">
+        <v>3742</v>
+      </c>
+    </row>
+    <row r="1969" spans="1:1">
+      <c r="A1969"/>
+    </row>
+    <row r="1970" spans="1:1">
+      <c r="A1970" s="4" t="s">
+        <v>3743</v>
+      </c>
+    </row>
+    <row r="1971" spans="1:1">
+      <c r="A1971" s="4" t="s">
+        <v>3744</v>
+      </c>
+    </row>
+    <row r="1972" spans="1:1">
+      <c r="A1972"/>
+    </row>
+    <row r="1973" spans="1:1">
+      <c r="A1973" s="4" t="s">
+        <v>3745</v>
+      </c>
+    </row>
+    <row r="1974" spans="1:1">
+      <c r="A1974" s="4" t="s">
+        <v>3746</v>
+      </c>
+    </row>
+    <row r="1975" spans="1:1">
+      <c r="A1975"/>
+    </row>
+    <row r="1976" spans="1:1">
+      <c r="A1976" s="4" t="s">
+        <v>3747</v>
+      </c>
+    </row>
+    <row r="1977" spans="1:1">
+      <c r="A1977" s="4" t="s">
+        <v>3748</v>
+      </c>
+    </row>
+    <row r="1978" spans="1:1">
+      <c r="A1978" s="4" t="s">
+        <v>3749</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
